--- a/data/trans_orig/P6606-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE609BBE-D202-49D8-BE4D-2212A7543688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D3723C-D26B-4421-AC98-94B6D5FB059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70AC373D-9DEC-496A-BED0-7F3460EA3038}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E4F6CC2-D532-4F09-9370-42563A1245AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="571">
   <si>
     <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>37,53%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
   </si>
   <si>
     <t>44,84%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,1645 +107,1651 @@
     <t>22,51%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2015 (Tasa respuesta: 35,35%)</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2015 (Tasa respuesta: 35,35%)</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>16,14%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>19,0%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>14,08%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97271E05-03CE-4797-9ABB-F4A2FA4E3566}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0BF61D-425A-4B88-AEF8-679A24F26ECC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2897,13 +2903,13 @@
         <v>23681</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2912,13 +2918,13 @@
         <v>6799</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2927,13 +2933,13 @@
         <v>30479</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2954,13 @@
         <v>6466</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2963,13 +2969,13 @@
         <v>5647</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2978,13 +2984,13 @@
         <v>12113</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3058,13 @@
         <v>936085</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>765</v>
@@ -3067,13 +3073,13 @@
         <v>802189</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1663</v>
@@ -3082,13 +3088,13 @@
         <v>1738275</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3109,13 @@
         <v>435043</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -3118,13 +3124,13 @@
         <v>158699</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>565</v>
@@ -3133,13 +3139,13 @@
         <v>593742</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3160,13 @@
         <v>407384</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -3169,13 +3175,13 @@
         <v>39279</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>426</v>
@@ -3184,13 +3190,13 @@
         <v>446663</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3211,13 @@
         <v>125992</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3220,13 +3226,13 @@
         <v>21171</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -3235,13 +3241,13 @@
         <v>147163</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F88E32B-5E8A-4AA9-9803-6B648D692147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F51227E-7E73-4F3A-9173-704E4D889A9E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3497,7 +3503,7 @@
         <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3506,13 +3512,13 @@
         <v>59663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -3521,13 +3527,13 @@
         <v>115082</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3548,13 @@
         <v>58257</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -3557,13 +3563,13 @@
         <v>11451</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -3572,13 +3578,13 @@
         <v>69708</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3599,13 @@
         <v>37953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3608,13 +3614,13 @@
         <v>11215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -3623,13 +3629,13 @@
         <v>49168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3703,13 @@
         <v>271487</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>249</v>
@@ -3712,13 +3718,13 @@
         <v>268434</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>498</v>
@@ -3727,13 +3733,13 @@
         <v>539921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3754,13 @@
         <v>286949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -3763,13 +3769,13 @@
         <v>183863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>447</v>
@@ -3778,13 +3784,13 @@
         <v>470813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3805,13 @@
         <v>226407</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>83</v>
@@ -3814,13 +3820,13 @@
         <v>87517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>305</v>
@@ -3829,13 +3835,13 @@
         <v>313924</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3856,13 @@
         <v>123775</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -3865,13 +3871,13 @@
         <v>31963</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>145</v>
@@ -3880,13 +3886,13 @@
         <v>155738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3960,13 @@
         <v>206122</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -3969,13 +3975,13 @@
         <v>186095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -3984,13 +3990,13 @@
         <v>392218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4011,13 @@
         <v>79349</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -4020,13 +4026,13 @@
         <v>37606</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M15" s="7">
         <v>105</v>
@@ -4035,13 +4041,13 @@
         <v>116955</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4062,13 @@
         <v>27429</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4071,13 +4077,13 @@
         <v>7231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -4086,13 +4092,13 @@
         <v>34660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4113,13 @@
         <v>3357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4122,13 +4128,13 @@
         <v>3965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4137,13 +4143,13 @@
         <v>7322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +4217,7 @@
         <v>509999</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>268</v>
@@ -4295,10 +4301,10 @@
         <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4319,13 @@
         <v>312092</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -4328,13 +4334,13 @@
         <v>106200</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>401</v>
@@ -4343,13 +4349,13 @@
         <v>418292</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4370,13 @@
         <v>165085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -4379,13 +4385,13 @@
         <v>47143</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>197</v>
@@ -4397,10 +4403,10 @@
         <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,7 +4481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DF9729-2F75-4AA9-95BC-126907C9D341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6071328D-4472-41E3-8248-4D4D8A93B29E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +4498,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4599,13 +4605,13 @@
         <v>18261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4614,13 +4620,13 @@
         <v>22265</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4629,13 +4635,13 @@
         <v>40525</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4656,13 @@
         <v>37346</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4665,13 +4671,13 @@
         <v>24783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -4680,13 +4686,13 @@
         <v>62129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4707,13 @@
         <v>44855</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -4716,13 +4722,13 @@
         <v>15703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>60</v>
@@ -4731,13 +4737,13 @@
         <v>60558</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4758,13 @@
         <v>36783</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4767,13 +4773,13 @@
         <v>9337</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4782,13 +4788,13 @@
         <v>46120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4862,13 @@
         <v>301223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>305</v>
@@ -4871,13 +4877,13 @@
         <v>311331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>583</v>
@@ -4886,13 +4892,13 @@
         <v>612555</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4913,13 @@
         <v>290495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -4922,13 +4928,13 @@
         <v>203889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -4937,13 +4943,13 @@
         <v>494384</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4964,13 @@
         <v>213087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>96</v>
@@ -4973,13 +4979,13 @@
         <v>97285</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>299</v>
@@ -4988,13 +4994,13 @@
         <v>310372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5015,13 @@
         <v>113840</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5024,13 +5030,13 @@
         <v>39272</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>367</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -5039,13 +5045,13 @@
         <v>153112</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5119,13 @@
         <v>245362</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -5128,13 +5134,13 @@
         <v>227597</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>440</v>
@@ -5143,13 +5149,13 @@
         <v>472959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5170,13 @@
         <v>65073</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -5179,10 +5185,10 @@
         <v>48995</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>383</v>
@@ -5230,7 +5236,7 @@
         <v>19836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>390</v>
@@ -5296,10 +5302,10 @@
         <v>20645</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>402</v>
@@ -5388,10 +5394,10 @@
         <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>1062</v>
@@ -5400,13 +5406,13 @@
         <v>1126039</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5427,13 @@
         <v>392914</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>273</v>
@@ -5436,13 +5442,13 @@
         <v>277667</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>642</v>
@@ -5451,13 +5457,13 @@
         <v>670581</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5478,13 @@
         <v>287489</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -5487,13 +5493,13 @@
         <v>132823</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M21" s="7">
         <v>406</v>
@@ -5502,13 +5508,13 @@
         <v>420312</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5529,13 @@
         <v>159242</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -5538,13 +5544,13 @@
         <v>60635</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
@@ -5553,13 +5559,13 @@
         <v>219877</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,7 +5640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3B023B-8B00-4B72-8026-DFE272E4E767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2801AADE-7F04-443F-BA6A-FB3D06CFE286}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5651,7 +5657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5758,13 +5764,13 @@
         <v>18318</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5776,10 +5782,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5788,13 +5794,13 @@
         <v>28611</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,10 +5815,10 @@
         <v>14102</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>448</v>
@@ -5875,13 +5881,13 @@
         <v>11992</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>457</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -5890,13 +5896,13 @@
         <v>29852</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,7 +5917,7 @@
         <v>16993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>463</v>
@@ -6072,7 +6078,7 @@
         <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -6081,13 +6087,13 @@
         <v>160085</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>367</v>
@@ -6096,13 +6102,13 @@
         <v>332428</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6123,13 @@
         <v>161340</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>491</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -6132,13 +6138,13 @@
         <v>71992</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -6147,13 +6153,13 @@
         <v>233333</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,7 +6174,7 @@
         <v>85008</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>289</v>
+        <v>496</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>497</v>
@@ -6183,13 +6189,13 @@
         <v>44517</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>499</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -6198,10 +6204,10 @@
         <v>129525</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>502</v>
@@ -6341,10 +6347,10 @@
         <v>515</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -6353,13 +6359,13 @@
         <v>69482</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,7 +6380,7 @@
         <v>12455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>520</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>521</v>
@@ -6407,10 +6413,10 @@
         <v>526</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>527</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6431,13 @@
         <v>4682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6440,13 +6446,13 @@
         <v>7138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>34</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -6610,13 +6616,13 @@
         <v>433824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6637,13 @@
         <v>191655</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -6646,13 +6652,13 @@
         <v>91112</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>219</v>
       </c>
       <c r="M21" s="7">
         <v>299</v>
@@ -6661,13 +6667,13 @@
         <v>282767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6688,13 @@
         <v>106683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>562</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -6697,13 +6703,13 @@
         <v>54576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -6712,13 +6718,13 @@
         <v>161258</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>569</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6606-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D3723C-D26B-4421-AC98-94B6D5FB059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AC3201-11E3-41A4-A326-6703CE4DD427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E4F6CC2-D532-4F09-9370-42563A1245AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9E75274-0AD1-4CEE-8484-C6694042DF67}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
   <si>
     <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,1518 +77,1515 @@
     <t>37,53%</t>
   </si>
   <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2016 (Tasa respuesta: 35,35%)</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
     <t>32,11%</t>
   </si>
   <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2015 (Tasa respuesta: 35,35%)</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
     <t>19,74%</t>
   </si>
   <si>
@@ -1625,9 +1622,6 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
     <t>1,84%</t>
   </si>
   <si>
@@ -1682,9 +1676,6 @@
     <t>23,42%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
     <t>26,89%</t>
   </si>
   <si>
@@ -1743,9 +1734,6 @@
   </si>
   <si>
     <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
   </si>
   <si>
     <t>8,03%</t>
@@ -2163,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0BF61D-425A-4B88-AEF8-679A24F26ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735BBA14-B57E-4C4D-89F0-819574F5EEBA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2903,13 +2891,13 @@
         <v>23681</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2918,13 +2906,13 @@
         <v>6799</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2933,13 +2921,13 @@
         <v>30479</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2942,13 @@
         <v>6466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2969,13 +2957,13 @@
         <v>5647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2984,13 +2972,13 @@
         <v>12113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3046,13 @@
         <v>936085</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>765</v>
@@ -3073,13 +3061,13 @@
         <v>802189</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1663</v>
@@ -3088,13 +3076,13 @@
         <v>1738275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3097,13 @@
         <v>435043</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -3124,13 +3112,13 @@
         <v>158699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>565</v>
@@ -3139,7 +3127,7 @@
         <v>593742</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>140</v>
@@ -3229,10 +3217,10 @@
         <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -3241,13 +3229,13 @@
         <v>147163</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3291,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F51227E-7E73-4F3A-9173-704E4D889A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9102AD43-E872-41AB-B662-224488E995FB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3339,7 +3327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3446,13 +3434,13 @@
         <v>32389</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -3461,13 +3449,13 @@
         <v>57647</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -3476,13 +3464,13 @@
         <v>90037</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3485,13 @@
         <v>55419</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3512,13 +3500,13 @@
         <v>59663</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -3527,13 +3515,13 @@
         <v>115082</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3536,13 @@
         <v>58257</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -3563,13 +3551,13 @@
         <v>11451</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -3578,13 +3566,13 @@
         <v>69708</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3587,13 @@
         <v>37953</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3614,13 +3602,13 @@
         <v>11215</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -3629,13 +3617,13 @@
         <v>49168</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3691,13 @@
         <v>271487</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>249</v>
@@ -3718,13 +3706,13 @@
         <v>268434</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>498</v>
@@ -3733,13 +3721,13 @@
         <v>539921</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3742,13 @@
         <v>286949</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -3769,13 +3757,13 @@
         <v>183863</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>447</v>
@@ -3784,13 +3772,13 @@
         <v>470813</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3793,13 @@
         <v>226407</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>83</v>
@@ -3820,13 +3808,13 @@
         <v>87517</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>305</v>
@@ -3835,13 +3823,13 @@
         <v>313924</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3844,13 @@
         <v>123775</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -3871,13 +3859,13 @@
         <v>31963</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>145</v>
@@ -3886,13 +3874,13 @@
         <v>155738</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3948,13 @@
         <v>206122</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -3975,13 +3963,13 @@
         <v>186095</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -3990,13 +3978,13 @@
         <v>392218</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +3999,13 @@
         <v>79349</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -4026,13 +4014,13 @@
         <v>37606</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M15" s="7">
         <v>105</v>
@@ -4041,13 +4029,13 @@
         <v>116955</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4050,13 @@
         <v>27429</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4077,13 +4065,13 @@
         <v>7231</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -4092,10 +4080,10 @@
         <v>34660</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>258</v>
@@ -4217,13 +4205,13 @@
         <v>509999</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>469</v>
@@ -4232,13 +4220,13 @@
         <v>512177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>939</v>
@@ -4247,13 +4235,13 @@
         <v>1022176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4256,13 @@
         <v>421717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -4283,10 +4271,10 @@
         <v>281132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>281</v>
@@ -4462,7 +4450,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6071328D-4472-41E3-8248-4D4D8A93B29E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E36824-5D8B-4073-A053-8C144896390D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4722,13 +4710,13 @@
         <v>15703</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>60</v>
@@ -4737,13 +4725,13 @@
         <v>60558</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4746,13 @@
         <v>36783</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4773,13 +4761,13 @@
         <v>9337</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4788,13 +4776,13 @@
         <v>46120</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4850,13 @@
         <v>301223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H9" s="7">
         <v>305</v>
@@ -4877,13 +4865,13 @@
         <v>311331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>583</v>
@@ -4892,13 +4880,13 @@
         <v>612555</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4901,13 @@
         <v>290495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -4928,13 +4916,13 @@
         <v>203889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -4943,13 +4931,13 @@
         <v>494384</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4952,13 @@
         <v>213087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>96</v>
@@ -4979,13 +4967,13 @@
         <v>97285</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>299</v>
@@ -4994,13 +4982,13 @@
         <v>310372</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5003,13 @@
         <v>113840</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5030,13 +5018,13 @@
         <v>39272</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -5045,13 +5033,13 @@
         <v>153112</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5107,13 @@
         <v>245362</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -5134,13 +5122,13 @@
         <v>227597</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>440</v>
@@ -5149,13 +5137,13 @@
         <v>472959</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,7 +5158,7 @@
         <v>65073</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>221</v>
+        <v>379</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>380</v>
@@ -5188,10 +5176,10 @@
         <v>382</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M15" s="7">
         <v>111</v>
@@ -5200,13 +5188,13 @@
         <v>114067</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5224,13 @@
         <v>19836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -5251,13 +5239,13 @@
         <v>49382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5260,13 @@
         <v>8619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5287,13 +5275,13 @@
         <v>12026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5302,13 +5290,13 @@
         <v>20645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5364,13 @@
         <v>564846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>545</v>
@@ -5391,13 +5379,13 @@
         <v>561193</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>1062</v>
@@ -5406,13 +5394,13 @@
         <v>1126039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5415,13 @@
         <v>392914</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>273</v>
@@ -5442,13 +5430,13 @@
         <v>277667</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>642</v>
@@ -5457,7 +5445,7 @@
         <v>670581</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>417</v>
@@ -5544,13 +5532,13 @@
         <v>60635</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
@@ -5559,13 +5547,13 @@
         <v>219877</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5609,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5640,7 +5628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2801AADE-7F04-443F-BA6A-FB3D06CFE286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FD9284-8BE8-4E7F-BB28-25409F02834A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5657,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,13 +5752,13 @@
         <v>18318</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5782,10 +5770,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5794,13 +5782,13 @@
         <v>28611</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5803,13 @@
         <v>14102</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -5833,10 +5821,10 @@
         <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -5845,13 +5833,13 @@
         <v>31915</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5854,13 @@
         <v>17860</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5881,13 +5869,13 @@
         <v>11992</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -5896,13 +5884,13 @@
         <v>29852</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,7 +5905,7 @@
         <v>16993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>463</v>
@@ -5938,7 +5926,7 @@
         <v>466</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>467</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -5947,13 +5935,13 @@
         <v>19914</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6009,13 @@
         <v>215432</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H9" s="7">
         <v>245</v>
@@ -6036,13 +6024,13 @@
         <v>179872</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M9" s="7">
         <v>392</v>
@@ -6051,13 +6039,13 @@
         <v>395304</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6060,13 @@
         <v>172343</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -6129,7 +6117,7 @@
         <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -6138,13 +6126,13 @@
         <v>71992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -6153,13 +6141,13 @@
         <v>233333</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>495</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6162,13 @@
         <v>85008</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -6189,13 +6177,13 @@
         <v>44517</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -6204,13 +6192,13 @@
         <v>129525</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>501</v>
+        <v>383</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6266,13 @@
         <v>199506</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -6293,13 +6281,13 @@
         <v>167369</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>409</v>
@@ -6308,13 +6296,13 @@
         <v>366875</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6317,13 @@
         <v>37340</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -6344,13 +6332,13 @@
         <v>32141</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -6359,13 +6347,13 @@
         <v>69482</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6368,13 @@
         <v>12455</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -6395,13 +6383,13 @@
         <v>7127</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -6410,13 +6398,13 @@
         <v>19582</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>528</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6419,13 @@
         <v>4682</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6446,10 +6434,10 @@
         <v>7138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>34</v>
@@ -6461,13 +6449,13 @@
         <v>11820</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6523,13 @@
         <v>433256</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H19" s="7">
         <v>488</v>
@@ -6550,13 +6538,13 @@
         <v>357534</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M19" s="7">
         <v>832</v>
@@ -6565,13 +6553,13 @@
         <v>790790</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6574,13 @@
         <v>223785</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>547</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H20" s="7">
         <v>285</v>
@@ -6601,13 +6589,13 @@
         <v>210039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -6616,13 +6604,13 @@
         <v>433824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6625,13 @@
         <v>191655</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -6652,13 +6640,13 @@
         <v>91112</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M21" s="7">
         <v>299</v>
@@ -6667,13 +6655,13 @@
         <v>282767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6676,13 @@
         <v>106683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -6703,13 +6691,13 @@
         <v>54576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -6718,13 +6706,13 @@
         <v>161258</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>568</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6768,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6606-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AC3201-11E3-41A4-A326-6703CE4DD427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC9F7C6-243E-4069-BEC9-5471E4C8C568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9E75274-0AD1-4CEE-8484-C6694042DF67}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E840CC46-AB2C-4AFB-A422-0E262ADD6F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="569">
   <si>
     <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>37,53%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
   </si>
   <si>
     <t>44,84%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,1639 +107,1645 @@
     <t>22,51%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2016 (Tasa respuesta: 35,35%)</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>36,09%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2016 (Tasa respuesta: 35,35%)</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>11,42%</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735BBA14-B57E-4C4D-89F0-819574F5EEBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE688414-17E0-4526-BA08-B6E6BA28D6B9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3127,13 +3133,13 @@
         <v>593742</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>407384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -3163,13 +3169,13 @@
         <v>39279</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>426</v>
@@ -3178,13 +3184,13 @@
         <v>446663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3205,13 @@
         <v>125992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3214,13 +3220,13 @@
         <v>21171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -3229,13 +3235,13 @@
         <v>147163</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3297,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9102AD43-E872-41AB-B662-224488E995FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2E45E-499E-4DFC-B952-8026C4AE5092}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3327,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3434,13 +3440,13 @@
         <v>32389</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -3449,13 +3455,13 @@
         <v>57647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -3464,13 +3470,13 @@
         <v>90037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3491,13 @@
         <v>55419</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3617,13 +3623,13 @@
         <v>49168</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3697,13 @@
         <v>271487</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>249</v>
@@ -3706,13 +3712,13 @@
         <v>268434</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>498</v>
@@ -3721,13 +3727,13 @@
         <v>539921</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3748,13 @@
         <v>286949</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -3757,13 +3763,13 @@
         <v>183863</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>447</v>
@@ -3772,13 +3778,13 @@
         <v>470813</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,10 +3868,10 @@
         <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>145</v>
@@ -3874,13 +3880,13 @@
         <v>155738</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3954,13 @@
         <v>206122</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -3963,13 +3969,13 @@
         <v>186095</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -3978,13 +3984,13 @@
         <v>392218</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4005,13 @@
         <v>79349</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -4014,13 +4020,13 @@
         <v>37606</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>105</v>
@@ -4029,13 +4035,13 @@
         <v>116955</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4056,13 @@
         <v>27429</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4065,13 +4071,13 @@
         <v>7231</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -4080,13 +4086,13 @@
         <v>34660</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4107,13 @@
         <v>3357</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4116,13 +4122,13 @@
         <v>3965</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4131,13 +4137,13 @@
         <v>7322</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4211,13 @@
         <v>509999</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>469</v>
@@ -4220,13 +4226,13 @@
         <v>512177</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>939</v>
@@ -4235,13 +4241,13 @@
         <v>1022176</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4262,13 @@
         <v>421717</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -4271,10 +4277,10 @@
         <v>281132</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>281</v>
@@ -4289,10 +4295,10 @@
         <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4313,13 @@
         <v>312092</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -4322,13 +4328,13 @@
         <v>106200</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>401</v>
@@ -4337,13 +4343,13 @@
         <v>418292</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4364,13 @@
         <v>165085</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -4373,13 +4379,13 @@
         <v>47143</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>197</v>
@@ -4391,10 +4397,10 @@
         <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4456,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E36824-5D8B-4073-A053-8C144896390D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D240A5-0A2F-433C-942B-979E9E5DDC3A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4486,7 +4492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4593,13 +4599,13 @@
         <v>18261</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4608,13 +4614,13 @@
         <v>22265</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4623,13 +4629,13 @@
         <v>40525</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4650,13 @@
         <v>37346</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4659,13 +4665,13 @@
         <v>24783</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -4674,13 +4680,13 @@
         <v>62129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4701,13 @@
         <v>44855</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -4710,13 +4716,13 @@
         <v>15703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>60</v>
@@ -4725,13 +4731,13 @@
         <v>60558</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4752,13 @@
         <v>36783</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4761,13 +4767,13 @@
         <v>9337</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4776,13 +4782,13 @@
         <v>46120</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4856,13 @@
         <v>301223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H9" s="7">
         <v>305</v>
@@ -4865,13 +4871,13 @@
         <v>311331</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>583</v>
@@ -4880,13 +4886,13 @@
         <v>612555</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4907,13 @@
         <v>290495</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -4916,13 +4922,13 @@
         <v>203889</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -4931,13 +4937,13 @@
         <v>494384</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4958,13 @@
         <v>213087</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>96</v>
@@ -4967,13 +4973,13 @@
         <v>97285</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>299</v>
@@ -4982,13 +4988,13 @@
         <v>310372</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5009,13 @@
         <v>113840</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5018,13 +5024,13 @@
         <v>39272</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -5033,13 +5039,13 @@
         <v>153112</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5113,13 @@
         <v>245362</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -5122,13 +5128,13 @@
         <v>227597</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>440</v>
@@ -5137,13 +5143,13 @@
         <v>472959</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5164,13 @@
         <v>65073</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -5173,13 +5179,13 @@
         <v>48995</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M15" s="7">
         <v>111</v>
@@ -5188,13 +5194,13 @@
         <v>114067</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5230,13 @@
         <v>19836</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -5239,13 +5245,13 @@
         <v>49382</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5266,13 @@
         <v>8619</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5275,13 +5281,13 @@
         <v>12026</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5290,13 +5296,13 @@
         <v>20645</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5370,13 @@
         <v>564846</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>545</v>
@@ -5379,13 +5385,13 @@
         <v>561193</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>1062</v>
@@ -5394,13 +5400,13 @@
         <v>1126039</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5421,7 @@
         <v>392914</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>413</v>
@@ -5436,7 +5442,7 @@
         <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>642</v>
@@ -5445,13 +5451,13 @@
         <v>670581</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5472,13 @@
         <v>287489</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>303</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -5481,13 +5487,13 @@
         <v>132823</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M21" s="7">
         <v>406</v>
@@ -5496,13 +5502,13 @@
         <v>420312</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5523,13 @@
         <v>159242</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -5532,13 +5538,13 @@
         <v>60635</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
@@ -5547,13 +5553,13 @@
         <v>219877</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5615,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FD9284-8BE8-4E7F-BB28-25409F02834A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C059AE-701D-49AC-B3E6-F8582C4055AA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5645,7 +5651,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5752,13 +5758,13 @@
         <v>18318</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5770,10 +5776,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5782,13 +5788,13 @@
         <v>28611</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5809,13 @@
         <v>14102</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -5821,10 +5827,10 @@
         <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -5833,13 +5839,13 @@
         <v>31915</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5860,13 @@
         <v>17860</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5869,7 +5875,7 @@
         <v>11992</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>456</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>457</v>
@@ -5926,7 +5932,7 @@
         <v>466</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>467</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -5935,13 +5941,13 @@
         <v>19914</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6015,13 @@
         <v>215432</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H9" s="7">
         <v>245</v>
@@ -6024,13 +6030,13 @@
         <v>179872</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M9" s="7">
         <v>392</v>
@@ -6039,13 +6045,13 @@
         <v>395304</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6066,13 @@
         <v>172343</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -6075,13 +6081,13 @@
         <v>160085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>367</v>
@@ -6090,13 +6096,13 @@
         <v>332428</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6117,13 @@
         <v>161340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -6126,13 +6132,13 @@
         <v>71992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>493</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -6141,13 +6147,13 @@
         <v>233333</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6168,13 @@
         <v>85008</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>495</v>
+        <v>289</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -6177,13 +6183,13 @@
         <v>44517</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -6192,13 +6198,13 @@
         <v>129525</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>500</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6272,13 @@
         <v>199506</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -6281,13 +6287,13 @@
         <v>167369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>409</v>
@@ -6296,13 +6302,13 @@
         <v>366875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6323,13 @@
         <v>37340</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -6332,13 +6338,13 @@
         <v>32141</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -6347,13 +6353,13 @@
         <v>69482</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6374,13 @@
         <v>12455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>519</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -6383,13 +6389,13 @@
         <v>7127</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -6398,13 +6404,13 @@
         <v>19582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>526</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6425,13 @@
         <v>4682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6434,13 +6440,13 @@
         <v>7138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>34</v>
+        <v>533</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -6449,13 +6455,13 @@
         <v>11820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6529,13 @@
         <v>433256</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H19" s="7">
         <v>488</v>
@@ -6538,13 +6544,13 @@
         <v>357534</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M19" s="7">
         <v>832</v>
@@ -6553,13 +6559,13 @@
         <v>790790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6580,13 @@
         <v>223785</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>547</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H20" s="7">
         <v>285</v>
@@ -6589,13 +6595,13 @@
         <v>210039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -6604,13 +6610,13 @@
         <v>433824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>549</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6631,13 @@
         <v>191655</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -6640,13 +6646,13 @@
         <v>91112</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>217</v>
+        <v>558</v>
       </c>
       <c r="M21" s="7">
         <v>299</v>
@@ -6655,13 +6661,13 @@
         <v>282767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6682,13 @@
         <v>106683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -6691,13 +6697,13 @@
         <v>54576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -6706,13 +6712,13 @@
         <v>161258</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>567</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>565</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,7 +6774,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6606-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC9F7C6-243E-4069-BEC9-5471E4C8C568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD32A1A-ECCF-4BF0-962F-3AA73F8D4C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E840CC46-AB2C-4AFB-A422-0E262ADD6F4D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C85C8A1-3D94-411B-808B-B11FD9F8CA15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="572">
   <si>
     <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -1358,394 +1358,403 @@
     <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE688414-17E0-4526-BA08-B6E6BA28D6B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E42D734-8199-4936-9670-80CAD12070DD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3316,7 +3325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2E45E-499E-4DFC-B952-8026C4AE5092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941BA1F9-F321-4C4F-AFBE-05C89E62298D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4475,7 +4484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D240A5-0A2F-433C-942B-979E9E5DDC3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D7FCCA-5665-434C-A5EB-2F1A4ABB69AB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5634,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C059AE-701D-49AC-B3E6-F8582C4055AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0874F3F-4949-4399-AB8F-38BAB7CE0D75}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5755,25 +5764,25 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>18318</v>
+        <v>17168</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>10293</v>
+        <v>9501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>442</v>
@@ -5785,7 +5794,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>28611</v>
+        <v>26668</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>444</v>
@@ -5806,46 +5815,46 @@
         <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>14102</v>
+        <v>14713</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>17813</v>
+        <v>16324</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>52</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>31915</v>
+        <v>31037</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,46 +5866,46 @@
         <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>17860</v>
+        <v>17978</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>454</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>11992</v>
+        <v>10594</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>29852</v>
+        <v>28572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,46 +5917,46 @@
         <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>16993</v>
+        <v>15556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2921</v>
+        <v>2704</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>19914</v>
+        <v>18260</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,7 +5968,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>67272</v>
+        <v>65414</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5974,7 +5983,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>43019</v>
+        <v>39123</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5989,7 +5998,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>110291</v>
+        <v>104537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -6012,46 +6021,46 @@
         <v>147</v>
       </c>
       <c r="D9" s="7">
-        <v>215432</v>
+        <v>403976</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H9" s="7">
         <v>245</v>
       </c>
       <c r="I9" s="7">
-        <v>179872</v>
+        <v>166198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M9" s="7">
         <v>392</v>
       </c>
       <c r="N9" s="7">
-        <v>395304</v>
+        <v>570175</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,40 +6072,40 @@
         <v>159</v>
       </c>
       <c r="D10" s="7">
-        <v>172343</v>
+        <v>169910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
       </c>
       <c r="I10" s="7">
-        <v>160085</v>
+        <v>170134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>367</v>
       </c>
       <c r="N10" s="7">
-        <v>332428</v>
+        <v>340044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>486</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>487</v>
@@ -6114,7 +6123,7 @@
         <v>148</v>
       </c>
       <c r="D11" s="7">
-        <v>161340</v>
+        <v>153051</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>489</v>
@@ -6129,7 +6138,7 @@
         <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>71992</v>
+        <v>64248</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>492</v>
@@ -6138,22 +6147,22 @@
         <v>493</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>494</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
       </c>
       <c r="N11" s="7">
-        <v>233333</v>
+        <v>217299</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,46 +6174,46 @@
         <v>71</v>
       </c>
       <c r="D12" s="7">
-        <v>85008</v>
+        <v>78424</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>44517</v>
+        <v>41175</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
       </c>
       <c r="N12" s="7">
-        <v>129525</v>
+        <v>119600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,7 +6225,7 @@
         <v>525</v>
       </c>
       <c r="D13" s="7">
-        <v>634123</v>
+        <v>805362</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6231,7 +6240,7 @@
         <v>599</v>
       </c>
       <c r="I13" s="7">
-        <v>456467</v>
+        <v>441755</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6246,7 +6255,7 @@
         <v>1124</v>
       </c>
       <c r="N13" s="7">
-        <v>1090590</v>
+        <v>1247117</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6269,46 +6278,46 @@
         <v>181</v>
       </c>
       <c r="D14" s="7">
-        <v>199506</v>
+        <v>190549</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>167369</v>
+        <v>156328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>366875</v>
+        <v>346877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,46 +6329,46 @@
         <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>37340</v>
+        <v>35725</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
       </c>
       <c r="I15" s="7">
-        <v>32141</v>
+        <v>29763</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
       </c>
       <c r="N15" s="7">
-        <v>69482</v>
+        <v>65488</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,46 +6380,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>12455</v>
+        <v>11298</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>523</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>7127</v>
+        <v>6348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>19582</v>
+        <v>17647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>530</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,46 +6431,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>4682</v>
+        <v>4486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>7138</v>
+        <v>6627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>11820</v>
+        <v>11114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,7 +6482,7 @@
         <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>253984</v>
+        <v>242059</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6488,7 +6497,7 @@
         <v>297</v>
       </c>
       <c r="I18" s="7">
-        <v>213775</v>
+        <v>199066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6503,7 +6512,7 @@
         <v>530</v>
       </c>
       <c r="N18" s="7">
-        <v>467759</v>
+        <v>441125</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6526,46 +6535,46 @@
         <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>433256</v>
+        <v>611693</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H19" s="7">
         <v>488</v>
       </c>
       <c r="I19" s="7">
-        <v>357534</v>
+        <v>332027</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M19" s="7">
         <v>832</v>
       </c>
       <c r="N19" s="7">
-        <v>790790</v>
+        <v>943720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,46 +6586,46 @@
         <v>214</v>
       </c>
       <c r="D20" s="7">
-        <v>223785</v>
+        <v>220349</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H20" s="7">
         <v>285</v>
       </c>
       <c r="I20" s="7">
-        <v>210039</v>
+        <v>216220</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>549</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
       </c>
       <c r="N20" s="7">
-        <v>433824</v>
+        <v>436569</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>554</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,46 +6637,46 @@
         <v>179</v>
       </c>
       <c r="D21" s="7">
-        <v>191655</v>
+        <v>182327</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
       </c>
       <c r="I21" s="7">
-        <v>91112</v>
+        <v>81190</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>556</v>
+        <v>43</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M21" s="7">
         <v>299</v>
       </c>
       <c r="N21" s="7">
-        <v>282767</v>
+        <v>263517</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,46 +6688,46 @@
         <v>95</v>
       </c>
       <c r="D22" s="7">
-        <v>106683</v>
+        <v>98466</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>561</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>54576</v>
+        <v>50507</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>566</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
       </c>
       <c r="N22" s="7">
-        <v>161258</v>
+        <v>148973</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>570</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6739,7 @@
         <v>832</v>
       </c>
       <c r="D23" s="7">
-        <v>955379</v>
+        <v>1112835</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6745,7 +6754,7 @@
         <v>961</v>
       </c>
       <c r="I23" s="7">
-        <v>713261</v>
+        <v>679944</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6760,7 +6769,7 @@
         <v>1793</v>
       </c>
       <c r="N23" s="7">
-        <v>1668640</v>
+        <v>1792779</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
